--- a/projetos3.xlsx
+++ b/projetos3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf53497273c5c07f/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4BC76789-130D-4D15-ABFE-DD6BA531CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A278C370-46E1-432A-BD44-90C813C95989}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{4BC76789-130D-4D15-ABFE-DD6BA531CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68F1F7E-4E3A-4CC1-B6B5-47D743D1826B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E844431-8890-49E7-A83F-0DA43CCFFB98}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Productivity</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Real return benchmark bond yield, long term</t>
+  </si>
+  <si>
+    <t>R*CAN_HLW</t>
   </si>
 </sst>
 </file>
@@ -107,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC20CC-173B-4798-8A0F-6B607E5954CE}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,8 +454,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -458,8 +468,11 @@
       <c r="C2">
         <v>3.8007347628035499</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>3.9235293836379799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1990.25</v>
       </c>
@@ -469,8 +482,11 @@
       <c r="C3">
         <v>3.7275529057112</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>3.7579427575265898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1990.5</v>
       </c>
@@ -480,8 +496,11 @@
       <c r="C4">
         <v>3.56876210276838</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3.6139228336117402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1990.75</v>
       </c>
@@ -491,8 +510,11 @@
       <c r="C5">
         <v>3.1529449786991801</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3.4708485526051001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1991</v>
       </c>
@@ -502,8 +524,11 @@
       <c r="C6">
         <v>2.95945003437566</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>3.2288706260390398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1991.25</v>
       </c>
@@ -513,8 +538,11 @@
       <c r="C7">
         <v>2.99444504014944</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>3.2657406095710901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1991.5</v>
       </c>
@@ -524,8 +552,11 @@
       <c r="C8">
         <v>2.9589400199637099</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>3.1748871978356701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1991.75</v>
       </c>
@@ -538,8 +569,11 @@
       <c r="D9">
         <v>4.431555172413792</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>3.0615113220860901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -552,8 +586,11 @@
       <c r="D10">
         <v>4.4976562499999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2.9460892963218401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1992.25</v>
       </c>
@@ -566,8 +603,11 @@
       <c r="D11">
         <v>4.6826587301587299</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2.8783528200791499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1992.5</v>
       </c>
@@ -580,8 +620,11 @@
       <c r="D12">
         <v>4.6696888888888903</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>2.8160668899755601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1992.75</v>
       </c>
@@ -594,8 +637,11 @@
       <c r="D13">
         <v>4.6187967741935481</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>2.7866556282334098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1993</v>
       </c>
@@ -608,8 +654,11 @@
       <c r="D14">
         <v>4.5716047619047639</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2.7493647433267601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1993.25</v>
       </c>
@@ -622,8 +671,11 @@
       <c r="D15">
         <v>4.4063365079365093</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>2.7337714502816901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1993.5</v>
       </c>
@@ -636,8 +688,11 @@
       <c r="D16">
         <v>4.2271952380952396</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>2.74157396319419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1993.75</v>
       </c>
@@ -650,8 +705,11 @@
       <c r="D17">
         <v>3.995143548387099</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>2.6346153328334898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1994</v>
       </c>
@@ -664,8 +722,11 @@
       <c r="D18">
         <v>3.6758063492063489</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2.7074481442666198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1994.25</v>
       </c>
@@ -678,8 +739,11 @@
       <c r="D19">
         <v>4.343753968253969</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>2.729813103168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1994.5</v>
       </c>
@@ -692,8 +756,11 @@
       <c r="D20">
         <v>4.6510158730158748</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>2.7552926760106899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1994.75</v>
       </c>
@@ -706,8 +773,11 @@
       <c r="D21">
         <v>4.7563491803278675</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>2.72738840132484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1995</v>
       </c>
@@ -720,8 +790,11 @@
       <c r="D22">
         <v>4.8741249999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>2.7836167236740899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1995.25</v>
       </c>
@@ -734,8 +807,11 @@
       <c r="D23">
         <v>4.5296047619047624</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>2.6638887181308699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1995.5</v>
       </c>
@@ -748,8 +824,11 @@
       <c r="D24">
         <v>4.7385403225806435</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2.61559543223161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1995.75</v>
       </c>
@@ -762,8 +841,11 @@
       <c r="D25">
         <v>4.6846163934426226</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>2.5757820191612502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1996</v>
       </c>
@@ -776,8 +858,11 @@
       <c r="D26">
         <v>4.6956421874999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>2.4912021901493202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1996.25</v>
       </c>
@@ -790,8 +875,11 @@
       <c r="D27">
         <v>4.8833015873015873</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>2.51684484061151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1996.5</v>
       </c>
@@ -804,8 +892,11 @@
       <c r="D28">
         <v>4.720642857142856</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>2.5386435959487001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1996.75</v>
       </c>
@@ -818,8 +909,11 @@
       <c r="D29">
         <v>4.0982612903225792</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>2.5477786493205299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1997</v>
       </c>
@@ -832,8 +926,11 @@
       <c r="D30">
         <v>4.1377258064516127</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>2.6107712098015199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1997.25</v>
       </c>
@@ -846,8 +943,11 @@
       <c r="D31">
         <v>4.2755296875000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>2.6198133042303402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1997.5</v>
       </c>
@@ -860,8 +960,11 @@
       <c r="D32">
         <v>4.087487301587303</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>2.6055785227927299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1997.75</v>
       </c>
@@ -874,8 +977,11 @@
       <c r="D33">
         <v>4.006811290322581</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>2.59039088816573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1998</v>
       </c>
@@ -888,8 +994,11 @@
       <c r="D34">
         <v>4.0740317460317446</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>2.6908776331398698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1998.25</v>
       </c>
@@ -902,8 +1011,11 @@
       <c r="D35">
         <v>3.9079857142857137</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>2.5291105973705599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1998.5</v>
       </c>
@@ -916,8 +1028,11 @@
       <c r="D36">
         <v>3.9846857142857144</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>2.58275113121943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1998.75</v>
       </c>
@@ -930,8 +1045,11 @@
       <c r="D37">
         <v>4.1154161290322593</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>2.71455916802126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -944,8 +1062,11 @@
       <c r="D38">
         <v>4.1370285714285719</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>2.8724000475219298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1999.25</v>
       </c>
@@ -958,8 +1079,11 @@
       <c r="D39">
         <v>4.0743492063492059</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>2.8764129360809898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1999.5</v>
       </c>
@@ -972,8 +1096,11 @@
       <c r="D40">
         <v>4.0349523809523777</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>3.0202589072020798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1999.75</v>
       </c>
@@ -986,8 +1113,11 @@
       <c r="D41">
         <v>4.0296451612903246</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>3.0801296813397401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -1000,8 +1130,11 @@
       <c r="D42">
         <v>3.9520312500000014</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>3.1643291598043199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2000.25</v>
       </c>
@@ -1014,8 +1147,11 @@
       <c r="D43">
         <v>3.7347619047619043</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>3.2127832412423998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2000.5</v>
       </c>
@@ -1028,8 +1164,11 @@
       <c r="D44">
         <v>3.6492096774193556</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>3.2772466428285498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2000.75</v>
       </c>
@@ -1042,8 +1181,11 @@
       <c r="D45">
         <v>3.5086885245901644</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>3.2270957881802298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2001</v>
       </c>
@@ -1056,8 +1198,11 @@
       <c r="D46">
         <v>3.3834843749999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>3.24131306778518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2001.25</v>
       </c>
@@ -1070,8 +1215,11 @@
       <c r="D47">
         <v>3.5787619047619033</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>3.2400006206851399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2001.5</v>
       </c>
@@ -1084,8 +1232,11 @@
       <c r="D48">
         <v>3.658451612903225</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>3.12614940660999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2001.75</v>
       </c>
@@ -1098,8 +1249,11 @@
       <c r="D49">
         <v>3.6832580645161297</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>3.0699579858852402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2002</v>
       </c>
@@ -1112,8 +1266,11 @@
       <c r="D50">
         <v>3.7297096774193537</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>3.2068185187354699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2002.25</v>
       </c>
@@ -1126,8 +1283,11 @@
       <c r="D51">
         <v>3.5665156249999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>3.1522968580398101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2002.5</v>
       </c>
@@ -1140,8 +1300,11 @@
       <c r="D52">
         <v>3.3841428571428573</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>3.1551457744634499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2002.75</v>
       </c>
@@ -1154,8 +1317,11 @@
       <c r="D53">
         <v>3.3756935483870958</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>3.06184406793794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2003</v>
       </c>
@@ -1168,8 +1334,11 @@
       <c r="D54">
         <v>3.117174603174603</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>3.041053074683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2003.25</v>
       </c>
@@ -1182,8 +1351,11 @@
       <c r="D55">
         <v>3.0247619047619057</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>2.7988416751748399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2003.5</v>
       </c>
@@ -1196,8 +1368,11 @@
       <c r="D56">
         <v>3.1302063492063508</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>2.76228984141797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2003.75</v>
       </c>
@@ -1210,8 +1385,11 @@
       <c r="D57">
         <v>2.9550161290322587</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>2.7900158020790902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -1224,8 +1402,11 @@
       <c r="D58">
         <v>2.5486093749999985</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>2.7559206468123101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2004.25</v>
       </c>
@@ -1238,8 +1419,11 @@
       <c r="D59">
         <v>2.4226031746031755</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>2.8374748591963499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2004.5</v>
       </c>
@@ -1252,8 +1436,11 @@
       <c r="D60">
         <v>2.2765079365079366</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>2.8668671812292499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2004.75</v>
       </c>
@@ -1266,8 +1453,11 @@
       <c r="D61">
         <v>2.2143225806451614</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>2.8454928260266801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2005</v>
       </c>
@@ -1280,8 +1470,11 @@
       <c r="D62">
         <v>2.0465645161290316</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>2.7747538309964899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2005.25</v>
       </c>
@@ -1294,8 +1487,11 @@
       <c r="D63">
         <v>1.8875000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>2.7707670013031702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2005.5</v>
       </c>
@@ -1308,8 +1504,11 @@
       <c r="D64">
         <v>1.8073174603174595</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>2.8434148430581798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2005.75</v>
       </c>
@@ -1322,8 +1521,11 @@
       <c r="D65">
         <v>1.6084426229508197</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>2.8772896702931101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2006</v>
       </c>
@@ -1336,8 +1538,11 @@
       <c r="D66">
         <v>1.5081406250000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>2.8782475444681399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2006.25</v>
       </c>
@@ -1350,8 +1555,11 @@
       <c r="D67">
         <v>1.7509841269841278</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>2.7881483920193202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2006.5</v>
       </c>
@@ -1364,8 +1572,11 @@
       <c r="D68">
         <v>1.7206774193548389</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>2.77349439858527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2006.75</v>
       </c>
@@ -1378,8 +1589,11 @@
       <c r="D69">
         <v>1.6761639344262296</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>2.77089421252386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2007</v>
       </c>
@@ -1392,8 +1606,11 @@
       <c r="D70">
         <v>1.7694062499999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>2.79517294204555</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2007.25</v>
       </c>
@@ -1406,8 +1623,11 @@
       <c r="D71">
         <v>1.9336666666666666</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>2.8439345999678398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2007.5</v>
       </c>
@@ -1420,8 +1640,11 @@
       <c r="D72">
         <v>2.1061612903225804</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>2.7725166587840402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2007.75</v>
       </c>
@@ -1434,8 +1657,11 @@
       <c r="D73">
         <v>2.0364193548387104</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>2.6460558366411902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2008</v>
       </c>
@@ -1448,8 +1674,11 @@
       <c r="D74">
         <v>1.865274193548387</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>2.6294251365183898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2008.25</v>
       </c>
@@ -1462,8 +1691,11 @@
       <c r="D75">
         <v>1.6627812499999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>2.6325159208723501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2008.5</v>
       </c>
@@ -1476,8 +1708,11 @@
       <c r="D76">
         <v>1.6378095238095232</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>2.7071212523394901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2008.75</v>
       </c>
@@ -1490,8 +1725,11 @@
       <c r="D77">
         <v>2.3926774193548388</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>2.40411587843281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2009</v>
       </c>
@@ -1504,8 +1742,11 @@
       <c r="D78">
         <v>2.1191612903225816</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>1.96508559487187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2009.25</v>
       </c>
@@ -1518,8 +1759,11 @@
       <c r="D79">
         <v>1.9917777777777783</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>1.8176993737804401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2009.5</v>
       </c>
@@ -1532,8 +1776,11 @@
       <c r="D80">
         <v>1.8486190476190478</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>1.82181690598117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2009.75</v>
       </c>
@@ -1546,8 +1793,11 @@
       <c r="D81">
         <v>1.6252096774193547</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>1.89867614661078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2010</v>
       </c>
@@ -1560,8 +1810,11 @@
       <c r="D82">
         <v>1.5710967741935487</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1.95720302291158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2010.25</v>
       </c>
@@ -1574,8 +1827,11 @@
       <c r="D83">
         <v>1.4910158730158729</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>1.8574167301625899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2010.5</v>
       </c>
@@ -1588,8 +1844,11 @@
       <c r="D84">
         <v>1.4060952380952378</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>1.8162437357804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2010.75</v>
       </c>
@@ -1602,8 +1861,11 @@
       <c r="D85">
         <v>1.2043548387096779</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1.8939403078938799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2011</v>
       </c>
@@ -1616,8 +1878,11 @@
       <c r="D86">
         <v>1.2761774193548387</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>1.87282301668437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2011.25</v>
       </c>
@@ -1630,8 +1895,11 @@
       <c r="D87">
         <v>1.0333650793650793</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>1.8257876360035801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2011.5</v>
       </c>
@@ -1644,8 +1912,11 @@
       <c r="D88">
         <v>0.80426984126984136</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>1.96399892533656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2011.75</v>
       </c>
@@ -1658,8 +1929,11 @@
       <c r="D89">
         <v>0.62429508196721306</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>1.9765869209050899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2012</v>
       </c>
@@ -1672,8 +1946,11 @@
       <c r="D90">
         <v>0.47646031746031753</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>1.8473909183870401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2012.25</v>
       </c>
@@ -1686,8 +1963,11 @@
       <c r="D91">
         <v>0.4513650793650793</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>1.80883310668783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2012.5</v>
       </c>
@@ -1700,8 +1980,11 @@
       <c r="D92">
         <v>0.39975806451612889</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>1.7101169699027401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2012.75</v>
       </c>
@@ -1714,8 +1997,11 @@
       <c r="D93">
         <v>0.37461290322580659</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>1.6664168577749301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2013</v>
       </c>
@@ -1728,8 +2014,11 @@
       <c r="D94">
         <v>0.52373770491803295</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1.75389380595105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2013.25</v>
       </c>
@@ -1742,8 +2031,11 @@
       <c r="D95">
         <v>0.60893749999999991</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>1.7387292477473599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2013.5</v>
       </c>
@@ -1756,8 +2048,11 @@
       <c r="D96">
         <v>1.1199682539682538</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>1.78246778584002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2013.75</v>
       </c>
@@ -1770,8 +2065,11 @@
       <c r="D97">
         <v>1.1631612903225801</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>1.84750302025952</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2014</v>
       </c>
@@ -1784,8 +2082,11 @@
       <c r="D98">
         <v>1.0117419354838706</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>1.8039751882514199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2014.25</v>
       </c>
@@ -1798,8 +2099,11 @@
       <c r="D99">
         <v>0.8640634920634922</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>1.89416722390032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2014.5</v>
       </c>
@@ -1812,8 +2116,11 @@
       <c r="D100">
         <v>0.68333333333333324</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>1.9657647501140301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2014.75</v>
       </c>
@@ -1826,8 +2133,11 @@
       <c r="D101">
         <v>0.64605161290322566</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>1.9730802455398599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2015</v>
       </c>
@@ -1840,8 +2150,11 @@
       <c r="D102">
         <v>0.27151935483870965</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>1.7798683729673499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2015.25</v>
       </c>
@@ -1854,8 +2167,11 @@
       <c r="D103">
         <v>0.47822857142857161</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>1.68116762235419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2015.5</v>
       </c>
@@ -1868,8 +2184,11 @@
       <c r="D104">
         <v>0.57858571428571426</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>1.68399282865924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2015.75</v>
       </c>
@@ -1882,8 +2201,11 @@
       <c r="D105">
         <v>0.76390322580645154</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>1.6022787764236801</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2016</v>
       </c>
@@ -1896,8 +2218,11 @@
       <c r="D106">
         <v>0.61093709677419383</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>1.6196182006945801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2016.25</v>
       </c>
@@ -1910,8 +2235,11 @@
       <c r="D107">
         <v>0.41627343749999995</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>1.4780704286238699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2016.5</v>
       </c>
@@ -1924,8 +2252,11 @@
       <c r="D108">
         <v>0.2703222222222223</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>1.56251613134275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2016.75</v>
       </c>
@@ -1938,8 +2269,11 @@
       <c r="D109">
         <v>0.38267868852459003</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>1.50893328006103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2017</v>
       </c>
@@ -1952,8 +2286,11 @@
       <c r="D110">
         <v>0.64673809523809522</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>1.6266667425135199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2017.25</v>
       </c>
@@ -1966,8 +2303,11 @@
       <c r="D111">
         <v>0.55905873015873009</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>1.6535683205909899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2017.5</v>
       </c>
@@ -1980,8 +2320,11 @@
       <c r="D112">
         <v>0.72343387096774203</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>1.5583705049605601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2017.75</v>
       </c>
@@ -1994,8 +2337,11 @@
       <c r="D113">
         <v>0.64473606557377028</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>1.61482971200022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2018</v>
       </c>
@@ -2008,8 +2354,11 @@
       <c r="D114">
         <v>0.62940806451612918</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>1.7530219879690701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2018.25</v>
       </c>
@@ -2022,8 +2371,11 @@
       <c r="D115">
         <v>0.59285468750000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>1.75616735871354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2018.5</v>
       </c>
@@ -2036,8 +2388,11 @@
       <c r="D116">
         <v>0.58159999999999978</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>1.78058370076225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2018.75</v>
       </c>
@@ -2050,8 +2405,11 @@
       <c r="D117">
         <v>0.77489516129032276</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>1.7426415257372301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2019</v>
       </c>
@@ -2064,8 +2422,11 @@
       <c r="D118">
         <v>0.66080483870967743</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>1.7317520167927101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2019.25</v>
       </c>
@@ -2078,8 +2439,11 @@
       <c r="D119">
         <v>0.46656666666666657</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>1.8779916428047101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2019.5</v>
       </c>
@@ -2092,8 +2456,11 @@
       <c r="D120">
         <v>0.29546349206349209</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>1.8220907313808401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2019.75</v>
       </c>
@@ -2106,8 +2473,11 @@
       <c r="D121">
         <v>0.36479516129032252</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>1.7650569824371301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -2120,8 +2490,11 @@
       <c r="D122">
         <v>0.23538888888888887</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>1.52887000818777</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2020.25</v>
       </c>
@@ -2134,8 +2507,11 @@
       <c r="D123">
         <v>0.17614126984126979</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>1.50370694695437</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2020.5</v>
       </c>
@@ -2148,8 +2524,11 @@
       <c r="D124">
         <v>-0.16922380952380953</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>1.5325278143816401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2020.75</v>
       </c>
@@ -2162,8 +2541,11 @@
       <c r="D125">
         <v>-0.24098870967741934</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>1.5291534692692501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -2176,8 +2558,11 @@
       <c r="D126">
         <v>3.2472580645161307E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>1.6399990900074</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2021.25</v>
       </c>
@@ -2190,8 +2575,11 @@
       <c r="D127">
         <v>0.24526666666666666</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>1.46987140901728</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2021.5</v>
       </c>
@@ -2204,8 +2592,11 @@
       <c r="D128">
         <v>8.4885483870967768E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>1.7038114794719901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2021.75</v>
       </c>
@@ -2218,8 +2609,11 @@
       <c r="D129">
         <v>9.0941935483870986E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>1.8652513221492</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -2232,8 +2626,11 @@
       <c r="D130">
         <v>0.38797258064516127</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>1.8827294845884399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2022.25</v>
       </c>
@@ -2246,8 +2643,11 @@
       <c r="D131">
         <v>1.0899000000000005</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>1.74151899591186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2022.5</v>
       </c>
@@ -2260,8 +2660,11 @@
       <c r="D132">
         <v>1.2142550000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>1.7176408210118399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2022.75</v>
       </c>
@@ -2274,8 +2677,11 @@
       <c r="D133">
         <v>1.255848333333333</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>1.5541555423061</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -2288,8 +2694,11 @@
       <c r="D134">
         <v>1.1974365079365081</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>1.61174823772961</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2023.25</v>
       </c>
@@ -2302,8 +2711,11 @@
       <c r="D135">
         <v>1.3951032258064517</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>1.5327809369823899</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2023.5</v>
       </c>
@@ -2316,8 +2728,11 @@
       <c r="D136">
         <v>1.7683629032258066</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>1.4400141923306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2023.75</v>
       </c>
@@ -2330,8 +2745,11 @@
       <c r="D137">
         <v>1.7548700000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>1.40124628985026</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2024</v>
       </c>
@@ -2344,8 +2762,11 @@
       <c r="D138">
         <v>1.6335933333333335</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>1.39923340650979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2024.25</v>
       </c>
@@ -2357,6 +2778,9 @@
       </c>
       <c r="D139">
         <v>1.6360453125000003</v>
+      </c>
+      <c r="E139">
+        <v>1.4610363675210101</v>
       </c>
     </row>
   </sheetData>
